--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H2">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I2">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J2">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N2">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q2">
-        <v>281.3122030629235</v>
+        <v>1999.667659004347</v>
       </c>
       <c r="R2">
-        <v>281.3122030629235</v>
+        <v>17997.00893103913</v>
       </c>
       <c r="S2">
-        <v>0.2126969883404269</v>
+        <v>0.4410667107259847</v>
       </c>
       <c r="T2">
-        <v>0.2126969883404269</v>
+        <v>0.4410667107259847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H3">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I3">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J3">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N3">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q3">
-        <v>271.2732460137994</v>
+        <v>1238.018145481566</v>
       </c>
       <c r="R3">
-        <v>271.2732460137994</v>
+        <v>11142.16330933409</v>
       </c>
       <c r="S3">
-        <v>0.2051066459835048</v>
+        <v>0.2730696717466143</v>
       </c>
       <c r="T3">
-        <v>0.2051066459835048</v>
+        <v>0.2730696717466143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H4">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I4">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J4">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N4">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q4">
-        <v>81.25953072403097</v>
+        <v>359.4078298494634</v>
       </c>
       <c r="R4">
-        <v>81.25953072403097</v>
+        <v>3234.67046864517</v>
       </c>
       <c r="S4">
-        <v>0.06143941596124714</v>
+        <v>0.07927458775814634</v>
       </c>
       <c r="T4">
-        <v>0.06143941596124714</v>
+        <v>0.07927458775814633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H5">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I5">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J5">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N5">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q5">
-        <v>157.2339203237231</v>
+        <v>259.5829980618612</v>
       </c>
       <c r="R5">
-        <v>157.2339203237231</v>
+        <v>2336.246982556751</v>
       </c>
       <c r="S5">
-        <v>0.1188827962444773</v>
+        <v>0.05725622385298872</v>
       </c>
       <c r="T5">
-        <v>0.1188827962444773</v>
+        <v>0.05725622385298871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H6">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I6">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J6">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N6">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q6">
-        <v>151.6228428247417</v>
+        <v>160.7109363458439</v>
       </c>
       <c r="R6">
-        <v>151.6228428247417</v>
+        <v>1446.398427112595</v>
       </c>
       <c r="S6">
-        <v>0.1146403237445867</v>
+        <v>0.03544801244975297</v>
       </c>
       <c r="T6">
-        <v>0.1146403237445867</v>
+        <v>0.03544801244975297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H7">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I7">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J7">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N7">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O7">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P7">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q7">
-        <v>45.41841569719436</v>
+        <v>46.65583382274833</v>
       </c>
       <c r="R7">
-        <v>45.41841569719436</v>
+        <v>419.902504404735</v>
       </c>
       <c r="S7">
-        <v>0.03434035256489032</v>
+        <v>0.01029087762044614</v>
       </c>
       <c r="T7">
-        <v>0.03434035256489032</v>
+        <v>0.01029087762044613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H8">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I8">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J8">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N8">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O8">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P8">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q8">
-        <v>148.4466413399897</v>
+        <v>261.0921842015268</v>
       </c>
       <c r="R8">
-        <v>148.4466413399897</v>
+        <v>2349.829657813741</v>
       </c>
       <c r="S8">
-        <v>0.1122388335752533</v>
+        <v>0.05758910505127092</v>
       </c>
       <c r="T8">
-        <v>0.1122388335752533</v>
+        <v>0.05758910505127091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H9">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I9">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J9">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N9">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P9">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q9">
-        <v>143.1491482334943</v>
+        <v>161.6452915210161</v>
       </c>
       <c r="R9">
-        <v>143.1491482334943</v>
+        <v>1454.807623689145</v>
       </c>
       <c r="S9">
-        <v>0.108233458702647</v>
+        <v>0.03565410317783335</v>
       </c>
       <c r="T9">
-        <v>0.108233458702647</v>
+        <v>0.03565410317783335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H10">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I10">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J10">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N10">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O10">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P10">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q10">
-        <v>42.88013204371349</v>
+        <v>46.92708555443166</v>
       </c>
       <c r="R10">
-        <v>42.88013204371349</v>
+        <v>422.3437699898849</v>
       </c>
       <c r="S10">
-        <v>0.03242118488296664</v>
+        <v>0.01035070761696259</v>
       </c>
       <c r="T10">
-        <v>0.03242118488296664</v>
+        <v>0.01035070761696259</v>
       </c>
     </row>
   </sheetData>
